--- a/hw2/sifma/US-Corporate-Bonds-Statistics-SIFMA.xlsx
+++ b/hw2/sifma/US-Corporate-Bonds-Statistics-SIFMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Shared With Me\Research\Data\Data - Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E0AC09-8174-4DF0-967D-1D0F34642DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8615B0C-6FCE-4350-BB5D-6B56823E7522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="1290" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="79">
   <si>
     <t>Total</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>A, Q, M</t>
-  </si>
-  <si>
-    <t>1Q21</t>
   </si>
   <si>
     <t>2Q21</t>
@@ -270,13 +267,13 @@
     <t>2Q23</t>
   </si>
   <si>
-    <t>1Q 2023</t>
-  </si>
-  <si>
     <t>This workbook is subject to the Terms of Use applicable to SIFMA’s website, available at http://www.sifma.org/legal. Copyright © 2023</t>
   </si>
   <si>
     <t>August 2023</t>
+  </si>
+  <si>
+    <t>2Q 2023</t>
   </si>
 </sst>
 </file>
@@ -1956,9 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75"/>
   <cols>
@@ -1972,7 +1967,7 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="95"/>
       <c r="D1" s="95"/>
@@ -1983,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="7">
-        <v>45174</v>
+        <v>45180</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -2013,7 +2008,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -2021,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
@@ -2042,7 +2037,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2121,7 +2116,7 @@
     </row>
     <row r="23" spans="2:10" s="9" customFormat="1" ht="11.25">
       <c r="B23" s="94" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
@@ -2224,7 +2219,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="68"/>
       <c r="Q3" s="68"/>
@@ -2296,7 +2291,7 @@
     <row r="7" spans="1:31" s="28" customFormat="1">
       <c r="C7" s="34"/>
       <c r="P7" s="98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="98"/>
       <c r="R7" s="98"/>
@@ -2304,7 +2299,7 @@
       <c r="T7" s="98"/>
       <c r="U7" s="70"/>
       <c r="V7" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W7" s="98"/>
       <c r="X7" s="98"/>
@@ -2314,7 +2309,7 @@
     <row r="8" spans="1:31" s="28" customFormat="1">
       <c r="A8" s="29"/>
       <c r="B8" s="96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
@@ -2333,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="P8" s="97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="97"/>
       <c r="R8" s="97"/>
@@ -2341,7 +2336,7 @@
       <c r="T8" s="65"/>
       <c r="U8" s="70"/>
       <c r="V8" s="99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W8" s="99"/>
       <c r="X8" s="99"/>
@@ -2361,17 +2356,17 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>62</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="39"/>
@@ -2442,34 +2437,34 @@
       </c>
       <c r="O10" s="41"/>
       <c r="P10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB10" s="41"/>
       <c r="AC10" s="41"/>
@@ -2529,19 +2524,19 @@
         <v>2.1344907834867977E-2</v>
       </c>
       <c r="V11" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W11" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X11" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y11" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z11" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB11" s="41"/>
       <c r="AC11" s="41"/>
@@ -2601,19 +2596,19 @@
         <v>3.9933321635374552E-2</v>
       </c>
       <c r="V12" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W12" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X12" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z12" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB12" s="41"/>
       <c r="AC12" s="41"/>
@@ -2673,19 +2668,19 @@
         <v>2.2113056771358996E-2</v>
       </c>
       <c r="V13" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W13" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X13" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y13" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z13" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB13" s="41"/>
       <c r="AC13" s="41"/>
@@ -2745,19 +2740,19 @@
         <v>2.3484743583419565E-2</v>
       </c>
       <c r="V14" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W14" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X14" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z14" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB14" s="41"/>
       <c r="AC14" s="41"/>
@@ -2817,19 +2812,19 @@
         <v>8.2166916068667328E-2</v>
       </c>
       <c r="V15" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W15" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X15" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y15" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z15" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB15" s="41"/>
       <c r="AC15" s="41"/>
@@ -2889,19 +2884,19 @@
         <v>-0.17821070238500358</v>
       </c>
       <c r="V16" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W16" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X16" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y16" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z16" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB16" s="41"/>
       <c r="AC16" s="41"/>
@@ -2965,19 +2960,19 @@
         <v>2.8252573159341043E-2</v>
       </c>
       <c r="V17" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W17" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X17" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y17" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z17" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB17" s="41"/>
       <c r="AC17" s="41"/>
@@ -3041,19 +3036,19 @@
         <v>0.60503379460999307</v>
       </c>
       <c r="V18" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W18" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X18" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y18" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z18" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB18" s="41"/>
       <c r="AC18" s="41"/>
@@ -3117,19 +3112,19 @@
         <v>-0.13772687434892872</v>
       </c>
       <c r="V19" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W19" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X19" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z19" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB19" s="41"/>
       <c r="AC19" s="41"/>
@@ -3193,19 +3188,19 @@
         <v>-0.30169784283568879</v>
       </c>
       <c r="V20" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W20" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X20" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y20" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z20" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB20" s="41"/>
       <c r="AC20" s="41"/>
@@ -3245,7 +3240,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="76">
         <v>960.18150000000003</v>
@@ -3297,7 +3292,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="76">
         <v>900.44326999999998</v>
@@ -3353,19 +3348,19 @@
       </c>
       <c r="U23" s="78"/>
       <c r="V23" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W23" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X23" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y23" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z23" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB23" s="41"/>
       <c r="AC23" s="41"/>
@@ -3392,7 +3387,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="41">
         <v>383.72320000000002</v>
@@ -3427,34 +3422,34 @@
       </c>
       <c r="O25" s="41"/>
       <c r="P25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z25" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB25" s="41"/>
       <c r="AC25" s="41"/>
@@ -3463,7 +3458,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="41">
         <v>330.5797</v>
@@ -3498,19 +3493,19 @@
       </c>
       <c r="O26" s="41"/>
       <c r="P26" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R26" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S26" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T26" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V26" s="64">
         <f t="shared" ref="V26:V30" si="11">B26/B25-1</f>
@@ -3539,7 +3534,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="41">
         <v>305.56610000000001</v>
@@ -3574,19 +3569,19 @@
       </c>
       <c r="O27" s="41"/>
       <c r="P27" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R27" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S27" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T27" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V27" s="64">
         <f t="shared" si="11"/>
@@ -3601,7 +3596,7 @@
         <v>-0.13753860500811665</v>
       </c>
       <c r="Y27" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z27" s="64">
         <f t="shared" si="15"/>
@@ -3614,7 +3609,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="41">
         <v>482.54840000000002</v>
@@ -3645,19 +3640,19 @@
       </c>
       <c r="O28" s="41"/>
       <c r="P28" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R28" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S28" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T28" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V28" s="64">
         <f t="shared" si="11"/>
@@ -3686,7 +3681,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="41">
         <v>282.6712</v>
@@ -3749,7 +3744,7 @@
         <v>-0.41932027577821263</v>
       </c>
       <c r="Y29" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z29" s="64">
         <f t="shared" si="15"/>
@@ -3762,7 +3757,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="41">
         <v>277.86799999999999</v>
@@ -3825,7 +3820,7 @@
         <v>-3.1729027426122047E-2</v>
       </c>
       <c r="Y30" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z30" s="64">
         <f t="shared" si="15"/>
@@ -3838,7 +3833,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="41">
         <v>205.91069999999996</v>
@@ -3915,7 +3910,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="41">
         <v>412.49450000000002</v>
@@ -3991,7 +3986,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="41">
         <v>333.76420000000002</v>
@@ -4053,7 +4048,7 @@
         <v>-0.13888047094912548</v>
       </c>
       <c r="Y33" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z33" s="64">
         <f t="shared" si="27"/>
@@ -4112,34 +4107,34 @@
       </c>
       <c r="O35" s="44"/>
       <c r="P35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z35" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB35" s="41"/>
       <c r="AC35" s="41"/>
@@ -4179,19 +4174,19 @@
       </c>
       <c r="O36" s="44"/>
       <c r="P36" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q36" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R36" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S36" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T36" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V36" s="64">
         <f t="shared" ref="V36:V41" si="28">B36/B35-1</f>
@@ -4251,19 +4246,19 @@
       </c>
       <c r="O37" s="44"/>
       <c r="P37" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q37" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R37" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S37" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T37" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V37" s="64">
         <f t="shared" si="28"/>
@@ -4323,19 +4318,19 @@
       </c>
       <c r="O38" s="44"/>
       <c r="P38" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R38" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S38" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T38" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V38" s="64">
         <f t="shared" si="28"/>
@@ -4395,19 +4390,19 @@
       </c>
       <c r="O39" s="44"/>
       <c r="P39" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R39" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S39" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T39" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V39" s="64">
         <f t="shared" si="28"/>
@@ -4463,19 +4458,19 @@
       </c>
       <c r="O40" s="44"/>
       <c r="P40" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q40" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R40" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S40" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T40" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V40" s="64">
         <f t="shared" si="28"/>
@@ -4531,19 +4526,19 @@
       </c>
       <c r="O41" s="44"/>
       <c r="P41" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q41" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R41" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S41" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T41" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V41" s="64">
         <f t="shared" si="28"/>
@@ -4599,19 +4594,19 @@
       </c>
       <c r="O42" s="44"/>
       <c r="P42" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q42" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R42" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S42" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T42" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V42" s="64">
         <f t="shared" ref="V42:V44" si="33">B42/B41-1</f>
@@ -4667,19 +4662,19 @@
       </c>
       <c r="O43" s="44"/>
       <c r="P43" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q43" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R43" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S43" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T43" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V43" s="64">
         <f t="shared" si="33"/>
@@ -4735,19 +4730,19 @@
       </c>
       <c r="O44" s="44"/>
       <c r="P44" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q44" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R44" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S44" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T44" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V44" s="64">
         <f t="shared" si="33"/>
@@ -4803,19 +4798,19 @@
       </c>
       <c r="O45" s="44"/>
       <c r="P45" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R45" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S45" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T45" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V45" s="64">
         <f t="shared" ref="V45:V46" si="38">B45/B44-1</f>
@@ -4871,19 +4866,19 @@
       </c>
       <c r="O46" s="44"/>
       <c r="P46" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q46" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R46" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S46" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T46" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V46" s="64">
         <f t="shared" si="38"/>
@@ -5153,7 +5148,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -5196,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -5239,7 +5234,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -5282,7 +5277,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -5401,19 +5396,19 @@
     <row r="8" spans="1:40">
       <c r="A8" s="29"/>
       <c r="B8" s="96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
       <c r="E8" s="49"/>
       <c r="F8" s="96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
       <c r="I8" s="49"/>
       <c r="J8" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="96"/>
       <c r="L8" s="96"/>
@@ -5422,7 +5417,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="96"/>
       <c r="R8" s="96"/>
@@ -5437,17 +5432,17 @@
       <c r="AA8" s="96"/>
       <c r="AB8" s="49"/>
       <c r="AC8" s="96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="96"/>
       <c r="AE8" s="96"/>
       <c r="AG8" s="98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH8" s="98"/>
       <c r="AI8" s="98"/>
       <c r="AK8" s="98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL8" s="98"/>
       <c r="AM8" s="98"/>
@@ -5488,37 +5483,37 @@
         <v>0</v>
       </c>
       <c r="P9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="R9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="S9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="T9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="U9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="V9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="W9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="38" t="s">
+      <c r="X9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="Y9" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="38" t="s">
+      <c r="Z9" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="Z9" s="38" t="s">
-        <v>52</v>
       </c>
       <c r="AA9" s="38" t="s">
         <v>0</v>
@@ -5638,22 +5633,22 @@
         <v>5.0263791199190697</v>
       </c>
       <c r="AG10" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH10" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI10" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK10" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL10" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM10" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -5752,13 +5747,13 @@
         <v>9.2092082649795959E-2</v>
       </c>
       <c r="AK11" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL11" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM11" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -5857,13 +5852,13 @@
         <v>8.0504744335891054E-2</v>
       </c>
       <c r="AK12" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL12" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM12" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -5962,13 +5957,13 @@
         <v>4.6976288442031944E-2</v>
       </c>
       <c r="AK13" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL13" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM13" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -6067,13 +6062,13 @@
         <v>7.4456947428738207E-2</v>
       </c>
       <c r="AK14" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL14" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM14" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -6172,13 +6167,13 @@
         <v>3.0550579709107906E-2</v>
       </c>
       <c r="AK15" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL15" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM15" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -6277,13 +6272,13 @@
         <v>1.9118736042841089E-2</v>
       </c>
       <c r="AK16" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL16" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM16" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -6382,13 +6377,13 @@
         <v>8.6526767855099829E-2</v>
       </c>
       <c r="AK17" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL17" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM17" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -6487,13 +6482,13 @@
         <v>0.1369710294858546</v>
       </c>
       <c r="AK18" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL18" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM18" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -6592,13 +6587,13 @@
         <v>-5.029840667756047E-2</v>
       </c>
       <c r="AK19" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL19" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM19" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -6697,13 +6692,13 @@
         <v>3.472843423858718E-2</v>
       </c>
       <c r="AK20" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL20" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM20" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -6746,7 +6741,7 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" s="75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="76">
         <v>21.797994011976048</v>
@@ -6783,50 +6778,50 @@
       </c>
       <c r="O22" s="85"/>
       <c r="P22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB22" s="86"/>
       <c r="AC22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE22" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF22" s="85"/>
       <c r="AG22" s="87"/>
@@ -6839,7 +6834,7 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="76">
         <v>24.867101796407187</v>
@@ -6876,50 +6871,50 @@
       </c>
       <c r="O23" s="85"/>
       <c r="P23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB23" s="86"/>
       <c r="AC23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE23" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF23" s="85"/>
       <c r="AG23" s="87">
@@ -6936,13 +6931,13 @@
       </c>
       <c r="AJ23" s="88"/>
       <c r="AK23" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL23" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM23" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -6984,7 +6979,7 @@
     </row>
     <row r="25" spans="1:40">
       <c r="A25" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="41">
         <v>20.911665471956102</v>
@@ -7066,28 +7061,28 @@
         <v>8.3913329819907805</v>
       </c>
       <c r="AG25" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH25" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI25" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ25" s="84"/>
       <c r="AK25" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL25" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM25" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:40">
       <c r="A26" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="41">
         <v>18.307432473718897</v>
@@ -7169,13 +7164,13 @@
         <v>7.5310673466165508</v>
       </c>
       <c r="AG26" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH26" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI26" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ26" s="84"/>
       <c r="AK26" s="83">
@@ -7194,7 +7189,7 @@
     </row>
     <row r="27" spans="1:40">
       <c r="A27" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="41">
         <v>18.555634929997002</v>
@@ -7276,13 +7271,13 @@
         <v>7.3945390264463988</v>
       </c>
       <c r="AG27" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH27" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI27" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ27" s="84"/>
       <c r="AK27" s="83">
@@ -7301,7 +7296,7 @@
     </row>
     <row r="28" spans="1:40">
       <c r="A28" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="41">
         <v>22.6328958374467</v>
@@ -7383,13 +7378,13 @@
         <v>9.2568587444825692</v>
       </c>
       <c r="AG28" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH28" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI28" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ28" s="84"/>
       <c r="AK28" s="83">
@@ -7408,7 +7403,7 @@
     </row>
     <row r="29" spans="1:40">
       <c r="A29" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="41">
         <v>22.624959909395901</v>
@@ -7518,7 +7513,7 @@
     </row>
     <row r="30" spans="1:40">
       <c r="A30" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="41">
         <v>21.943114136712897</v>
@@ -7628,7 +7623,7 @@
     </row>
     <row r="31" spans="1:40">
       <c r="A31" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="41">
         <v>22.666469811005999</v>
@@ -7738,7 +7733,7 @@
     </row>
     <row r="32" spans="1:40">
       <c r="A32" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="41">
         <v>28.528526027771701</v>
@@ -7848,7 +7843,7 @@
     </row>
     <row r="33" spans="1:40">
       <c r="A33" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="41">
         <v>25.084569964990298</v>
@@ -8034,68 +8029,68 @@
         <v>1.9004347826086958</v>
       </c>
       <c r="P35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB35" s="42"/>
       <c r="AC35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE35" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG35" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH35" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI35" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK35" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL35" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM35" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -8136,59 +8131,59 @@
         <v>1.7565714285714287</v>
       </c>
       <c r="P36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB36" s="42"/>
       <c r="AC36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE36" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG36" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH36" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI36" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK36" s="83">
         <f t="shared" ref="AK36:AK41" si="28">J36/J35-1</f>
@@ -8241,59 +8236,59 @@
         <v>1.5998095238095238</v>
       </c>
       <c r="P37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB37" s="42"/>
       <c r="AC37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE37" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG37" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH37" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI37" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK37" s="83">
         <f t="shared" si="28"/>
@@ -8346,59 +8341,59 @@
         <v>1.8279999999999998</v>
       </c>
       <c r="P38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB38" s="42"/>
       <c r="AC38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE38" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG38" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH38" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI38" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK38" s="83">
         <f t="shared" si="28"/>
@@ -8451,59 +8446,59 @@
         <v>1.4129047619047619</v>
       </c>
       <c r="P39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB39" s="42"/>
       <c r="AC39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE39" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG39" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH39" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI39" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK39" s="83">
         <f t="shared" si="28"/>
@@ -8556,59 +8551,59 @@
         <v>2.3327499999999999</v>
       </c>
       <c r="P40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB40" s="42"/>
       <c r="AC40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE40" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG40" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH40" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI40" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK40" s="83">
         <f t="shared" si="28"/>
@@ -8661,59 +8656,59 @@
         <v>2.2518947368421052</v>
       </c>
       <c r="P41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB41" s="42"/>
       <c r="AC41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE41" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG41" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH41" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI41" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK41" s="83">
         <f t="shared" si="28"/>
@@ -8766,59 +8761,59 @@
         <v>1.9936086956521737</v>
       </c>
       <c r="P42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB42" s="42"/>
       <c r="AC42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE42" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG42" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH42" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI42" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK42" s="83">
         <f t="shared" ref="AK42:AK44" si="31">J42/J41-1</f>
@@ -8871,59 +8866,59 @@
         <v>1.6867368421052633</v>
       </c>
       <c r="P43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB43" s="42"/>
       <c r="AC43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE43" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG43" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH43" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI43" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK43" s="83">
         <f t="shared" si="31"/>
@@ -8976,59 +8971,59 @@
         <v>2.0722727272727273</v>
       </c>
       <c r="P44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB44" s="42"/>
       <c r="AC44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE44" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG44" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH44" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI44" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK44" s="83">
         <f t="shared" si="31"/>
@@ -9081,59 +9076,59 @@
         <v>1.9920952380952379</v>
       </c>
       <c r="P45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB45" s="42"/>
       <c r="AC45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE45" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG45" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH45" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI45" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK45" s="83">
         <f t="shared" ref="AK45:AK46" si="34">J45/J44-1</f>
@@ -9186,59 +9181,59 @@
         <v>1.75725</v>
       </c>
       <c r="P46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB46" s="42"/>
       <c r="AC46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE46" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG46" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH46" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI46" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK46" s="83">
         <f t="shared" si="34"/>
@@ -9291,50 +9286,50 @@
         <v>1.8748260869565216</v>
       </c>
       <c r="P47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB47" s="42"/>
       <c r="AC47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE47" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG47" s="83">
         <f t="shared" ref="AG47" si="37">J47/J35-1</f>
@@ -9497,7 +9492,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
@@ -9508,7 +9503,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
@@ -9519,7 +9514,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -9530,7 +9525,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="69"/>
@@ -9554,10 +9549,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" thickTop="1">
@@ -9565,13 +9560,13 @@
         <v>2012</v>
       </c>
       <c r="B9" s="13">
-        <v>6714.866</v>
+        <v>6715.2290000000012</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9579,14 +9574,14 @@
         <v>2013</v>
       </c>
       <c r="B10" s="13">
-        <v>7121.0849999999991</v>
+        <v>7121.4479999999985</v>
       </c>
       <c r="D10" s="92">
         <f t="shared" ref="D10:D16" si="0">B10/B9-1</f>
-        <v>6.0495473774160091E-2</v>
+        <v>6.0492203616585138E-2</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9594,14 +9589,14 @@
         <v>2014</v>
       </c>
       <c r="B11" s="13">
-        <v>7464.969000000001</v>
+        <v>7465.3220000000001</v>
       </c>
       <c r="D11" s="92">
         <f t="shared" si="0"/>
-        <v>4.8290955661953516E-2</v>
+        <v>4.8287089928902294E-2</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9609,14 +9604,14 @@
         <v>2015</v>
       </c>
       <c r="B12" s="13">
-        <v>7702.8029999999999</v>
+        <v>7703.1570000000011</v>
       </c>
       <c r="D12" s="92">
         <f t="shared" si="0"/>
-        <v>3.1860011742848249E-2</v>
+        <v>3.1858639185289084E-2</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9624,14 +9619,14 @@
         <v>2016</v>
       </c>
       <c r="B13" s="13">
-        <v>7955.5390000000007</v>
+        <v>7955.8919999999998</v>
       </c>
       <c r="D13" s="92">
         <f t="shared" si="0"/>
-        <v>3.2810913118250795E-2</v>
+        <v>3.2809275469784405E-2</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9639,14 +9634,14 @@
         <v>2017</v>
       </c>
       <c r="B14" s="13">
-        <v>8305.8580000000002</v>
+        <v>8306.2119999999995</v>
       </c>
       <c r="D14" s="92">
         <f t="shared" si="0"/>
-        <v>4.4034602809438717E-2</v>
+        <v>4.4032774703326671E-2</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9654,14 +9649,14 @@
         <v>2018</v>
       </c>
       <c r="B15" s="13">
-        <v>8507.7660000000014</v>
+        <v>8508.0739999999987</v>
       </c>
       <c r="D15" s="92">
         <f t="shared" si="0"/>
-        <v>2.4309108101776111E-2</v>
+        <v>2.4302534055234748E-2</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9669,14 +9664,14 @@
         <v>2019</v>
       </c>
       <c r="B16" s="13">
-        <v>8857.2119999999995</v>
+        <v>8857.518</v>
       </c>
       <c r="D16" s="92">
         <f t="shared" si="0"/>
-        <v>4.1073767191057931E-2</v>
+        <v>4.1072045212583008E-2</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9684,14 +9679,14 @@
         <v>2020</v>
       </c>
       <c r="B17" s="13">
-        <v>9807.616</v>
+        <v>9811.2139999999999</v>
       </c>
       <c r="D17" s="92">
         <f t="shared" ref="D17:D18" si="1">B17/B16-1</f>
-        <v>0.10730283976492827</v>
+        <v>0.1076707944595765</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9699,14 +9694,14 @@
         <v>2021</v>
       </c>
       <c r="B18" s="13">
-        <v>10058.427000000001</v>
+        <v>10350.36</v>
       </c>
       <c r="D18" s="92">
         <f t="shared" si="1"/>
-        <v>2.5573085243141724E-2</v>
+        <v>5.4952017150986743E-2</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9714,14 +9709,14 @@
         <v>2022</v>
       </c>
       <c r="B19" s="13">
-        <v>10223.514000000001</v>
+        <v>10439.179</v>
       </c>
       <c r="D19" s="92">
         <f t="shared" ref="D19" si="2">B19/B18-1</f>
-        <v>1.6412804904782696E-2</v>
+        <v>8.5812474155488871E-3</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9734,13 +9729,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="13">
-        <v>9880.5370000000003</v>
+        <v>10334.799999999999</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9748,14 +9743,14 @@
         <v>30</v>
       </c>
       <c r="B22" s="13">
-        <v>10011.796</v>
+        <v>10395.880999999999</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="64">
         <f>B22/B21-1</f>
-        <v>1.3284601838948529E-2</v>
+        <v>5.9102256453922308E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9763,29 +9758,29 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>10041.904999999999</v>
+        <v>10350.36</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="64">
         <f t="shared" ref="F23:F27" si="3">B23/B22-1</f>
-        <v>3.0073525269591617E-3</v>
+        <v>-4.3787534697635744E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B24" s="13">
-        <v>10058.427000000001</v>
+        <v>10438.504999999999</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="64">
         <f t="shared" si="3"/>
-        <v>1.6453053479397184E-3</v>
+        <v>8.5161289075934565E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9793,15 +9788,15 @@
         <v>68</v>
       </c>
       <c r="B25" s="13">
-        <v>10158.276</v>
+        <v>10382.722999999998</v>
       </c>
       <c r="D25" s="92">
         <f>B25/B21-1</f>
-        <v>2.8109706992646144E-2</v>
+        <v>4.6370515152687197E-3</v>
       </c>
       <c r="F25" s="64">
         <f t="shared" si="3"/>
-        <v>9.9269001007808999E-3</v>
+        <v>-5.3438686861768669E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9809,15 +9804,15 @@
         <v>69</v>
       </c>
       <c r="B26" s="13">
-        <v>10120.563</v>
+        <v>10291.219999999999</v>
       </c>
       <c r="D26" s="92">
         <f t="shared" ref="D26:D27" si="4">B26/B22-1</f>
-        <v>1.0863884961299641E-2</v>
+        <v>-1.0067545020955859E-2</v>
       </c>
       <c r="F26" s="64">
         <f t="shared" si="3"/>
-        <v>-3.7125394112150767E-3</v>
+        <v>-8.8130059908174685E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9825,31 +9820,31 @@
         <v>70</v>
       </c>
       <c r="B27" s="13">
-        <v>10078.204999999998</v>
+        <v>10439.179</v>
       </c>
       <c r="D27" s="92">
         <f t="shared" si="4"/>
-        <v>3.6148519628496079E-3</v>
+        <v>8.5812474155488871E-3</v>
       </c>
       <c r="F27" s="64">
         <f t="shared" si="3"/>
-        <v>-4.185340281958827E-3</v>
+        <v>1.4377206978375856E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B28" s="13">
-        <v>10223.514000000001</v>
+        <v>10577.875</v>
       </c>
       <c r="D28" s="92">
         <f t="shared" ref="D28" si="5">B28/B24-1</f>
-        <v>1.6412804904782696E-2</v>
+        <v>1.3351528786928801E-2</v>
       </c>
       <c r="F28" s="64">
         <f t="shared" ref="F28" si="6">B28/B27-1</f>
-        <v>1.4418142913346532E-2</v>
+        <v>1.3286102288312174E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9857,15 +9852,15 @@
         <v>75</v>
       </c>
       <c r="B29" s="13">
-        <v>10358.618999999999</v>
+        <v>10608.880000000001</v>
       </c>
       <c r="D29" s="92">
         <f t="shared" ref="D29" si="7">B29/B25-1</f>
-        <v>1.97221457656791E-2</v>
+        <v>2.1782050816534726E-2</v>
       </c>
       <c r="F29" s="64">
         <f t="shared" ref="F29" si="8">B29/B28-1</f>
-        <v>1.3215123488851122E-2</v>
+        <v>2.9311180175604079E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
